--- a/medicine/Sexualité et sexologie/The_Girlfriend_Experience_(série_télévisée)/The_Girlfriend_Experience_(série_télévisée).xlsx
+++ b/medicine/Sexualité et sexologie/The_Girlfriend_Experience_(série_télévisée)/The_Girlfriend_Experience_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Girlfriend Experience est une série télévisée d'anthologie dramatique américaine produite par Steven Soderbergh et basée sur son film homonyme, diffusée entre le 10 avril 2016[1] et le 20 juin 2021 sur Starz et sur Super Channel[2] au Canada.
-En France, la série est diffusée à partir du 11 avril 2016 sur OCS Max[3] et au Québec à partir du 22 juin 2017 sur Max[4]. Elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Girlfriend Experience est une série télévisée d'anthologie dramatique américaine produite par Steven Soderbergh et basée sur son film homonyme, diffusée entre le 10 avril 2016 et le 20 juin 2021 sur Starz et sur Super Channel au Canada.
+En France, la série est diffusée à partir du 11 avril 2016 sur OCS Max et au Québec à partir du 22 juin 2017 sur Max. Elle reste inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saison 1
-Christine Reade est une étudiante en droit qui, en parallèle de ses études, réalise un stage dans un grand cabinet d'avocats. Sur les conseils d'une amie, elle entre petit à petit dans le monde très particulier des escort girls pour financer ses études.
-Saison 2
-Deux histoires diamétralement opposées. La première, se déroulant à Washington, voici la relation torride entre Erica Myles, impitoyable directrice financière d'un comité d'action politique républicain, et Anna Garner, une escort girl qui l'aide à faire chanter un donneur. La seconde, se déroulant au Nouveau-Mexique, suit Bria Jones, une escort expérimentée qui tente de reprendre sa vie avec sa fille Kayla alors qu'elle est placée en programme de protection de témoin afin de fuir une de ses relations devenue abusive. Mais son travail pourrait mettre en péril sa nouvelle identité et son avenir.
-Saison 3
-Iris, une jeune et belle étudiante en neurosciences, décide de se lancer dans les relations sexuelles tarifées. Elle y voit une opportunité en or d'entrer pour pénétrer dans le monde de la technologie.
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Reade est une étudiante en droit qui, en parallèle de ses études, réalise un stage dans un grand cabinet d'avocats. Sur les conseils d'une amie, elle entre petit à petit dans le monde très particulier des escort girls pour financer ses études.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +558,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux histoires diamétralement opposées. La première, se déroulant à Washington, voici la relation torride entre Erica Myles, impitoyable directrice financière d'un comité d'action politique républicain, et Anna Garner, une escort girl qui l'aide à faire chanter un donneur. La seconde, se déroulant au Nouveau-Mexique, suit Bria Jones, une escort expérimentée qui tente de reprendre sa vie avec sa fille Kayla alors qu'elle est placée en programme de protection de témoin afin de fuir une de ses relations devenue abusive. Mais son travail pourrait mettre en péril sa nouvelle identité et son avenir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris, une jeune et belle étudiante en neurosciences, décide de se lancer dans les relations sexuelles tarifées. Elle y voit une opportunité en or d'entrer pour pénétrer dans le monde de la technologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saison 1
-Acteurs principaux
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Acteurs principaux
 Riley Keough (VF : Elisabeth Ventura) : Christine Reade
 Paul Sparks (VF : Alexis Victor) : David Tellis
 Mary Lynn Rajskub (VF : Stéphanie Lafforgue) : Erin Roberts
@@ -566,9 +658,43 @@
 Kate Hewlett : Sarah
 Invités
 James McGowan (VF : Bernard Lanneau) : Alex Payton
-Martin Doyle (VF : Patrick Béthune) : Peter Gramercy
-Saison 2
-Histoire 1
+Martin Doyle (VF : Patrick Béthune) : Peter Gramercy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Histoire 1
 Erica &amp; Anna
 Anna Friel (VF : Véronique Desmadryl) : Erica Myles
 Louisa Krause (VF : Nastassja Girard) : Anna Garner
@@ -580,9 +706,43 @@
 Carmen Ejogo (VF : Annie Milon) : Bria Jones
 Tunde Adebimpe (en) (VF : Frantz Confiac) : Ian Olsen
 Morgana Davies (VF : Rebecca Benhamour) : Kayla Fairchild
-Harmony Korine (VF : Philippe Valmont) : Paul
-Saison 3
-Acteurs principaux
+Harmony Korine (VF : Philippe Valmont) : Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acteurs principaux
 Julia Goldani Telles : Iris Stanton
 Acteurs récurrents
 Charles Edwards : Elliott Stanton
@@ -597,75 +757,82 @@
 Daniel Betts : Rupert
 Tobi Bamtefa : Brett
 Peter Guinness : Lief
- Source et légende : version française (VF) sur RS Doublage[5] et DSD[6]
+ Source et légende : version française (VF) sur RS Doublage et DSD
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2014, Starz a commandé la série de treize épisodes[7].
-En septembre 2014, Riley Keough décroche le rôle-titre[8], confirmé fin février 2015[9]. Le mois suivant, Mary Lynn Rajskub décroche le rôle d'Erin[10].
-En novembre 2015, une vidéo promotionnelle est mise en ligne, ajoutant Paul Sparks et Kate Lyn Sheil à la distribution[11].
-Le pilote a été projeté durant le Festival du film de Sundance qui a eu lieu à la fin janvier 2016[12].
-Le 1er août 2016, la série est renouvelée pour une deuxième saison de quatorze épisodes avec une distribution renouvelée[13]. En janvier 2017, Anna Friel, Louisa Krause et Carmen Ejogo décrochent des rôles principaux[14], ainsi que Narges Rashidi en mars 2017[15].
-Le 26 juillet 2019, Starz renouvelle la série pour une troisième saison[16], qui se déroulera à Londres.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2014, Starz a commandé la série de treize épisodes.
+En septembre 2014, Riley Keough décroche le rôle-titre, confirmé fin février 2015. Le mois suivant, Mary Lynn Rajskub décroche le rôle d'Erin.
+En novembre 2015, une vidéo promotionnelle est mise en ligne, ajoutant Paul Sparks et Kate Lyn Sheil à la distribution.
+Le pilote a été projeté durant le Festival du film de Sundance qui a eu lieu à la fin janvier 2016.
+Le 1er août 2016, la série est renouvelée pour une deuxième saison de quatorze épisodes avec une distribution renouvelée. En janvier 2017, Anna Friel, Louisa Krause et Carmen Ejogo décrochent des rôles principaux, ainsi que Narges Rashidi en mars 2017.
+Le 26 juillet 2019, Starz renouvelle la série pour une troisième saison, qui se déroulera à Londres.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Première saison (2016)
-Les treize épisodes de la première saison ont été mis à disposition le 10 avril 2016 sur les services de streaming de la chaîne Starz[17].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Première saison (2016)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les treize épisodes de la première saison ont été mis à disposition le 10 avril 2016 sur les services de streaming de la chaîne Starz.
 Initiation (Entry)
 Une amie (A Friend)
 Maintien (Retention)
@@ -678,10 +845,44 @@
 Disponible (Available)
 Manipulation (Fabrication)
 La Famille (Home)
-Émancipation (Separation)
-Deuxième saison (2017)
-Chaque épisode est mis en ligne chaque dimanche à partir du 5 novembre 2017. Les épisodes de Bria et ceux d'Erica/Anna ont été diffusés en alternance sur Starz.
-Erica &amp; Anna[18],[19]
+Émancipation (Separation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2017)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque épisode est mis en ligne chaque dimanche à partir du 5 novembre 2017. Les épisodes de Bria et ceux d'Erica/Anna ont été diffusés en alternance sur Starz.
+Erica &amp; Anna,
 Force / Avantage (Leverage)
 La Liste / Aveu (The List)
 Sollicitation (Solicitation)
@@ -698,8 +899,43 @@
 Faire amende honorable (Making Amends)
 Rechute (Relapse)
 Titre : VFQ / VFF (VO)
-Troisième saison (2021)
-Elle a été diffusée du 2 mai[20] au 20 juin 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Troisième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Elle a été diffusée du 2 mai au 20 juin 2021.
 Miroirs (Mirrors)
 Tout le monde à un prix (Everyone's Got a Price)
 Deepfake (Deepfake)
@@ -713,39 +949,83 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réception critique
-La première saison est accueillie de façon positive par la critique. L'agrégateur de critiques Metacritic lui accorde une note de 79 sur 100, basée sur la moyenne de 23 critiques[21].
-Sur le site Rotten Tomatoes, elle obtient une note moyenne de 78 %, sur la base de 23 critiques[22].
-Pierre Langlais pour Télérama qualifie la série d'« objet déstabilisant, dont on ne sait s'il nous ennuie ou nous fascine »[23].
-Aux États-Unis
-L'épisode pilote, diffusé le 10 avril 2016, a réalisé une audience de 363 000 téléspectateurs avec un taux de 0,11 % sur les 18-49 ans lors de sa première diffusion[24].
-La première saison a obtenu une audience moyenne de 250 000 téléspectateurs avec un taux de 0,08 % sur les 18-49 ans lors de la première diffusion de chaque épisode (au 25 mai 2016)[24].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première saison est accueillie de façon positive par la critique. L'agrégateur de critiques Metacritic lui accorde une note de 79 sur 100, basée sur la moyenne de 23 critiques.
+Sur le site Rotten Tomatoes, elle obtient une note moyenne de 78 %, sur la base de 23 critiques.
+Pierre Langlais pour Télérama qualifie la série d'« objet déstabilisant, dont on ne sait s'il nous ennuie ou nous fascine ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The_Girlfriend_Experience_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Girlfriend_Experience_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épisode pilote, diffusé le 10 avril 2016, a réalisé une audience de 363 000 téléspectateurs avec un taux de 0,11 % sur les 18-49 ans lors de sa première diffusion.
+La première saison a obtenu une audience moyenne de 250 000 téléspectateurs avec un taux de 0,08 % sur les 18-49 ans lors de la première diffusion de chaque épisode (au 25 mai 2016).
 </t>
         </is>
       </c>
